--- a/documentation/modules/Variablesandmodules.xlsx
+++ b/documentation/modules/Variablesandmodules.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$160</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -93,112 +96,112 @@
     <t>KL_V(reg,va,regg,ind): use of specific production factors</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>INTER_USE_D_V(prd,regg,ind): use of domestically produced intermediate inputs</t>
+  </si>
+  <si>
+    <t>INTER_USE_M_V(prd,regg,ind): use of aggregated imported intermediate inputs</t>
+  </si>
+  <si>
+    <t>CONS_H_D_V(prd,regg): household consumption of domestically produced products</t>
+  </si>
+  <si>
+    <t>CONS_H_M_V(prd,regg): household consumption of aggregated products imported from modeled regions</t>
+  </si>
+  <si>
+    <t>CONS_G_D_V(prd,regg): government consumption of domestically produced products</t>
+  </si>
+  <si>
+    <t>CONS_G_M_V(prd,regg): government consumption of aggregated product imported from modeled regions</t>
+  </si>
+  <si>
+    <t>GFCF_D_V(prd,regg): gross fixed capital formation of domestically produced products</t>
+  </si>
+  <si>
+    <t>GFCF_M_V(prd,regg): gross fixed capital formation of aggregated product imported from modeled regions</t>
+  </si>
+  <si>
+    <t>SV_V(reg,prd,regg): stock changes of products on the most detailed level</t>
+  </si>
+  <si>
+    <t>IMPORT_T_V(prd,regg): total use of aggregated imported products</t>
+  </si>
+  <si>
+    <t>IMPORT_MOD_V(prd,regg): aggregated import from modeled regions</t>
+  </si>
+  <si>
+    <t>IMPORT_ROW_V(prd,regg): import from rest of the world region</t>
+  </si>
+  <si>
+    <t>TRADE_V(reg,prd,regg): bi-lateral trade flows</t>
+  </si>
+  <si>
+    <t>EXPORT_ROW_V(reg,prd): export to the rest of the world regions</t>
+  </si>
+  <si>
+    <t>SV_ROW_V(prd,regg): stock changes of rest of the world products</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>KLS_V(reg,va): Production of production factors</t>
+  </si>
+  <si>
+    <t>GDPDEF_V: GDP deflator used as numeraire</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>LASPEYRES_V(regg): Laspeyres price index for household consumption</t>
+  </si>
+  <si>
+    <t>P_V(reg,prd):basic product price</t>
+  </si>
+  <si>
+    <t>PAASCHE_V(regg): Paasche price index for household consumption</t>
+  </si>
+  <si>
+    <t>PC_G_V(prd,regg): aggregate product price for government consumption</t>
+  </si>
+  <si>
+    <t>PC_H_V(prd,regg): aggregate product price for household consumption</t>
+  </si>
+  <si>
+    <t>PC_I_V(prd,regg): aggregate product price for gross fixed capital formation</t>
+  </si>
+  <si>
+    <t>PIU_V(prd,regg,ind): aggregate product price for intermediate use</t>
+  </si>
+  <si>
+    <t>PKL_V(reg,va): production factor price</t>
+  </si>
+  <si>
+    <t>PROW_V: price of imports from the rest of the world (similar to exchange rate)</t>
+  </si>
+  <si>
+    <t>PY_V(regg,ind): industry output price</t>
+  </si>
+  <si>
+    <t>GDPCONST_V(regg): GDP in constant prices (volume)</t>
+  </si>
+  <si>
     <t>GDPCUR_V(regg): GDP in current prices (value)</t>
   </si>
   <si>
-    <t>GDPCONST_V(regg): GDP in constant prices (volume)</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>PY_V(regg,ind): industry output price</t>
-  </si>
-  <si>
-    <t>P_V(reg,prd):basic product price</t>
-  </si>
-  <si>
-    <t>PKL_V(reg,va): production factor price</t>
-  </si>
-  <si>
     <t>PVA_V(regg,ind): aggregate production factors price</t>
   </si>
   <si>
-    <t>PIU_V(prd,regg,ind): aggregate product price for intermediate use</t>
-  </si>
-  <si>
-    <t>PC_H_V(prd,regg): aggregate product price for household consumption</t>
-  </si>
-  <si>
-    <t>PC_G_V(prd,regg): aggregate product price for government consumption</t>
-  </si>
-  <si>
-    <t>PC_I_V(prd,regg): aggregate product price for gross fixed capital formation</t>
+    <t>PIMP_MOD_V(prd,regg): aggregate imported product price for the aggregate imported from modeled regions</t>
   </si>
   <si>
     <t>PIMP_T_V(prd,regg): aggregate total imported product price</t>
-  </si>
-  <si>
-    <t>PIMP_MOD_V(prd,regg): aggregate imported product price for the aggregate imported from modeled regions</t>
-  </si>
-  <si>
-    <t>PROW_V: price of imports from the rest of the world (similar to exchange rate)</t>
-  </si>
-  <si>
-    <t>PAASCHE_V(regg): Paasche price index for household consumption</t>
-  </si>
-  <si>
-    <t>LASPEYRES_V(regg): Laspeyres price index for household consumption</t>
-  </si>
-  <si>
-    <t>INTER_USE_D_V(prd,regg,ind): use of domestically produced intermediate inputs</t>
-  </si>
-  <si>
-    <t>INTER_USE_M_V(prd,regg,ind): use of aggregated imported intermediate inputs</t>
-  </si>
-  <si>
-    <t>CONS_H_D_V(prd,regg): household consumption of domestically produced products</t>
-  </si>
-  <si>
-    <t>CONS_H_M_V(prd,regg): household consumption of aggregated products imported from modeled regions</t>
-  </si>
-  <si>
-    <t>CONS_G_D_V(prd,regg): government consumption of domestically produced products</t>
-  </si>
-  <si>
-    <t>CONS_G_M_V(prd,regg): government consumption of aggregated product imported from modeled regions</t>
-  </si>
-  <si>
-    <t>GFCF_D_V(prd,regg): gross fixed capital formation of domestically produced products</t>
-  </si>
-  <si>
-    <t>GFCF_M_V(prd,regg): gross fixed capital formation of aggregated product imported from modeled regions</t>
-  </si>
-  <si>
-    <t>SV_V(reg,prd,regg): stock changes of products on the most detailed level</t>
-  </si>
-  <si>
-    <t>IMPORT_T_V(prd,regg): total use of aggregated imported products</t>
-  </si>
-  <si>
-    <t>IMPORT_MOD_V(prd,regg): aggregated import from modeled regions</t>
-  </si>
-  <si>
-    <t>IMPORT_ROW_V(prd,regg): import from rest of the world region</t>
-  </si>
-  <si>
-    <t>TRADE_V(reg,prd,regg): bi-lateral trade flows</t>
-  </si>
-  <si>
-    <t>EXPORT_ROW_V(reg,prd): export to the rest of the world regions</t>
-  </si>
-  <si>
-    <t>SV_ROW_V(prd,regg): stock changes of rest of the world products</t>
-  </si>
-  <si>
-    <t>Trade</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>KLS_V(reg,va): Production of production factors</t>
-  </si>
-  <si>
-    <t>GDPDEF_V: GDP deflator used as numeraire</t>
   </si>
 </sst>
 </file>
@@ -539,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -585,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -613,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -627,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -641,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -655,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -669,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -683,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -697,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -711,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -725,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -739,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -781,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -795,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -809,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -823,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -837,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -851,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -879,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -893,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -907,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -921,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -935,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -949,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -977,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -991,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1005,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1019,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1033,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1047,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1061,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1075,7 +1078,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1089,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1103,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1117,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1131,7 +1134,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1145,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1159,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1173,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1187,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1201,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1215,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1229,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1237,10 +1240,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -1251,13 +1254,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1265,13 +1268,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1279,10 +1282,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -1293,13 +1296,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1307,13 +1310,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1321,10 +1324,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -1335,13 +1338,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1349,13 +1352,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1363,10 +1366,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
@@ -1377,13 +1380,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1391,13 +1394,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1405,10 +1408,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -1419,13 +1422,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1433,13 +1436,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1447,10 +1450,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -1461,13 +1464,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1475,13 +1478,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1489,10 +1492,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -1503,13 +1506,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1517,13 +1520,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1531,41 +1534,41 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1573,52 +1576,52 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
@@ -1629,13 +1632,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1643,13 +1646,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1657,10 +1660,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -1671,13 +1674,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1685,13 +1688,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1699,52 +1702,52 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
@@ -1755,27 +1758,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1783,41 +1786,41 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
         <v>58</v>
       </c>
-      <c r="B89" t="s">
-        <v>28</v>
-      </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" t="s">
         <v>58</v>
       </c>
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s">
         <v>58</v>
       </c>
-      <c r="B91" t="s">
-        <v>28</v>
-      </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1825,41 +1828,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1867,27 +1870,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1895,13 +1898,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1909,41 +1912,41 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -1951,27 +1954,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1979,13 +1982,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1993,10 +1996,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
@@ -2007,27 +2010,27 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2035,27 +2038,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2063,13 +2066,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2077,10 +2080,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -2091,55 +2094,55 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2147,24 +2150,24 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
@@ -2175,13 +2178,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2189,13 +2192,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2203,10 +2206,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -2217,13 +2220,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2231,13 +2234,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2245,10 +2248,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
@@ -2259,13 +2262,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2273,13 +2276,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2287,10 +2290,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -2301,13 +2304,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2315,13 +2318,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2329,10 +2332,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -2343,13 +2346,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2357,13 +2360,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2371,10 +2374,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -2385,13 +2388,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2399,13 +2402,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2413,10 +2416,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
@@ -2427,13 +2430,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2441,13 +2444,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C136" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2455,10 +2458,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
@@ -2469,13 +2472,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2483,13 +2486,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2497,10 +2500,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
@@ -2511,13 +2514,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2525,13 +2528,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s">
         <v>19</v>
@@ -2553,13 +2556,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2567,13 +2570,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2581,10 +2584,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B146" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
@@ -2595,13 +2598,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -2609,13 +2612,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C148" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -2623,10 +2626,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
@@ -2637,13 +2640,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2651,13 +2654,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C151" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2665,10 +2668,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B152" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C152" t="s">
         <v>19</v>
@@ -2679,13 +2682,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B153" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -2693,13 +2696,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B154" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2707,10 +2710,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C155" t="s">
         <v>19</v>
@@ -2721,13 +2724,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C156" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -2735,13 +2738,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C157" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -2749,10 +2752,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
         <v>19</v>
@@ -2763,13 +2766,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C159" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -2777,22 +2780,21 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D169">
-    <sortCondition ref="A2:A169"/>
-    <sortCondition ref="B2:B169"/>
+  <sortState ref="A2:D160">
+    <sortCondition ref="A2:A160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/modules/Variablesandmodules.xlsx
+++ b/documentation/modules/Variablesandmodules.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$154</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="59">
   <si>
     <t>CONS_H_T_V(prd,regg): household consumption on aggregated product</t>
   </si>
@@ -90,9 +90,6 @@
     <t>INTER_USE_T_V(prd,regg,ind): use of intermediate inputs on aggregated product level</t>
   </si>
   <si>
-    <t>VA_V(regg,ind): use of aggregated production factors</t>
-  </si>
-  <si>
     <t>KL_V(reg,va,regg,ind): use of specific production factors</t>
   </si>
   <si>
@@ -141,18 +138,12 @@
     <t>EXPORT_ROW_V(reg,prd): export to the rest of the world regions</t>
   </si>
   <si>
-    <t>SV_ROW_V(prd,regg): stock changes of rest of the world products</t>
-  </si>
-  <si>
     <t>Trade</t>
   </si>
   <si>
     <t>Production</t>
   </si>
   <si>
-    <t>KLS_V(reg,va): Production of production factors</t>
-  </si>
-  <si>
     <t>GDPDEF_V: GDP deflator used as numeraire</t>
   </si>
   <si>
@@ -195,13 +186,16 @@
     <t>GDPCUR_V(regg): GDP in current prices (value)</t>
   </si>
   <si>
-    <t>PVA_V(regg,ind): aggregate production factors price</t>
-  </si>
-  <si>
     <t>PIMP_MOD_V(prd,regg): aggregate imported product price for the aggregate imported from modeled regions</t>
   </si>
   <si>
     <t>PIMP_T_V(prd,regg): aggregate total imported product price</t>
+  </si>
+  <si>
+    <t>PnKL_V(regg,ind): aggregate production factors price</t>
+  </si>
+  <si>
+    <t>nKL_V(regg,ind): use of aggregated production factors</t>
   </si>
 </sst>
 </file>
@@ -540,11 +534,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -563,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -588,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -602,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -616,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -630,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -644,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -658,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -672,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -686,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -700,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -728,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -742,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -770,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -784,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -798,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -812,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -826,10 +818,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -854,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -868,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -882,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -896,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -910,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -924,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -938,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -952,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -966,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -980,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -994,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1008,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1022,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1036,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1050,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1064,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1078,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1092,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1106,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1120,7 +1112,7 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1134,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1148,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1162,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1176,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1190,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1204,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1218,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1232,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1240,10 +1232,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -1254,13 +1246,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1268,13 +1260,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1282,10 +1274,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -1296,13 +1288,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1310,13 +1302,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1324,10 +1316,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -1338,27 +1330,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1366,10 +1358,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
         <v>45</v>
-      </c>
-      <c r="B59" t="s">
-        <v>48</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
@@ -1380,13 +1372,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
-        <v>48</v>
-      </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1394,13 +1386,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
         <v>45</v>
       </c>
-      <c r="B61" t="s">
-        <v>48</v>
-      </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1408,10 +1400,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -1422,27 +1414,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1450,10 +1442,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -1464,27 +1456,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1492,10 +1484,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -1506,27 +1498,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1534,10 +1526,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
@@ -1548,13 +1540,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1562,13 +1554,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1576,10 +1568,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -1590,13 +1582,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1604,13 +1596,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1618,10 +1610,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
@@ -1632,27 +1624,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1660,10 +1652,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -1674,27 +1666,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1702,10 +1694,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -1716,13 +1708,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1730,13 +1722,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1744,10 +1736,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
@@ -1758,13 +1750,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1772,13 +1764,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1786,10 +1778,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
@@ -1800,13 +1792,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1814,13 +1806,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1828,7 +1820,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -1842,13 +1834,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1856,13 +1848,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1870,10 +1862,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
@@ -1884,13 +1876,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1898,13 +1890,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1912,10 +1904,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
@@ -1926,13 +1918,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -1940,24 +1932,24 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
@@ -1968,27 +1960,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1996,41 +1988,41 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2038,27 +2030,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2066,24 +2058,24 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -2094,13 +2086,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2108,24 +2100,24 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -2136,35 +2128,35 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B116" t="s">
         <v>30</v>
@@ -2178,27 +2170,27 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s">
         <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B118" t="s">
         <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2206,10 +2198,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -2220,27 +2212,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2248,7 +2240,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
         <v>28</v>
@@ -2262,27 +2254,27 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B123" t="s">
         <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B124" t="s">
         <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2290,10 +2282,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -2304,27 +2296,27 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2332,10 +2324,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -2346,13 +2338,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2360,13 +2352,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2374,7 +2366,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B131" t="s">
         <v>32</v>
@@ -2388,27 +2380,27 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
         <v>32</v>
       </c>
       <c r="C132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
         <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2416,10 +2408,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
@@ -2430,13 +2422,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2444,21 +2436,21 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B137" t="s">
         <v>36</v>
@@ -2472,13 +2464,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B138" t="s">
         <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2486,13 +2478,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B139" t="s">
         <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2500,10 +2492,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
@@ -2514,13 +2506,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2528,24 +2520,24 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C143" t="s">
         <v>19</v>
@@ -2556,27 +2548,27 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2584,7 +2576,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
         <v>26</v>
@@ -2598,27 +2590,27 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s">
         <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B148" t="s">
         <v>26</v>
       </c>
       <c r="C148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -2626,41 +2618,41 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2668,27 +2660,27 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C152" t="s">
         <v>19</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -2696,100 +2688,16 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>41</v>
-      </c>
-      <c r="B155" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>41</v>
-      </c>
-      <c r="B156" t="s">
-        <v>34</v>
-      </c>
-      <c r="C156" t="s">
-        <v>42</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>41</v>
-      </c>
-      <c r="B157" t="s">
-        <v>34</v>
-      </c>
-      <c r="C157" t="s">
-        <v>45</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>41</v>
-      </c>
-      <c r="B158" t="s">
-        <v>38</v>
-      </c>
-      <c r="C158" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>41</v>
-      </c>
-      <c r="B159" t="s">
-        <v>38</v>
-      </c>
-      <c r="C159" t="s">
-        <v>42</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>41</v>
-      </c>
-      <c r="B160" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" t="s">
-        <v>45</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2797,6 +2705,7 @@
     <sortCondition ref="A2:A160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documentation/modules/Variablesandmodules.xlsx
+++ b/documentation/modules/Variablesandmodules.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$157</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="60">
   <si>
     <t>CONS_H_T_V(prd,regg): household consumption on aggregated product</t>
   </si>
@@ -39,9 +39,6 @@
     <t>NTPREV_V(reg):revenue from net tax on production</t>
   </si>
   <si>
-    <t>TIMREV_V(reg):revenue from tax on export and international margins</t>
-  </si>
-  <si>
     <t>GRINC_H_V(regg):gross income of households</t>
   </si>
   <si>
@@ -196,6 +193,12 @@
   </si>
   <si>
     <t>nKL_V(regg,ind): use of aggregated production factors</t>
+  </si>
+  <si>
+    <t>INMREV_V(reg):revenue from international margins</t>
+  </si>
+  <si>
+    <t>TSEREV_V(reg): revenue from tax on export</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -546,27 +549,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -574,13 +577,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -588,13 +591,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -602,13 +605,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -616,13 +619,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -630,13 +633,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -644,13 +647,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -658,13 +661,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -672,13 +675,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -686,13 +689,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -700,13 +703,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -714,13 +717,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -728,13 +731,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -742,13 +745,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -756,13 +759,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -770,13 +773,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -784,13 +787,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -798,13 +801,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -812,13 +815,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -826,13 +829,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -840,13 +843,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -854,13 +857,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -868,13 +871,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -882,13 +885,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -896,13 +899,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -910,13 +913,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -924,13 +927,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -938,13 +941,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -952,13 +955,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -966,13 +969,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -980,13 +983,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -994,13 +997,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1008,13 +1011,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1022,13 +1025,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1036,13 +1039,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1050,13 +1053,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1064,13 +1067,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1078,13 +1081,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1092,13 +1095,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1106,13 +1109,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1120,13 +1123,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1134,13 +1137,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1148,13 +1151,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1162,13 +1165,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1176,13 +1179,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1190,13 +1193,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1204,13 +1207,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1218,13 +1221,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1232,13 +1235,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1246,13 +1249,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1260,13 +1263,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1274,27 +1277,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1302,13 +1305,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1316,13 +1319,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
         <v>42</v>
       </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1330,13 +1333,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
         <v>42</v>
       </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1344,41 +1347,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1386,41 +1389,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1428,27 +1431,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1456,13 +1459,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1470,13 +1473,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1484,13 +1487,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1498,13 +1501,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1512,13 +1515,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1526,13 +1529,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1540,27 +1543,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1568,13 +1571,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1582,13 +1585,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1596,27 +1599,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1624,41 +1627,41 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1666,13 +1669,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1680,38 +1683,38 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -1722,13 +1725,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1736,13 +1739,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1750,13 +1753,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1764,13 +1767,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1778,13 +1781,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1792,13 +1795,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1806,10 +1809,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
         <v>39</v>
@@ -1820,55 +1823,55 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1876,27 +1879,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1904,27 +1907,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -1932,27 +1935,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -1960,69 +1963,69 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2033,13 +2036,13 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,10 +2050,10 @@
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2061,24 +2064,24 @@
         <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2086,13 +2089,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2100,27 +2103,27 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2128,27 +2131,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2156,13 +2159,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2170,27 +2173,27 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2198,13 +2201,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2212,27 +2215,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2240,13 +2243,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2254,27 +2257,27 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2282,13 +2285,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2296,27 +2299,27 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2324,13 +2327,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2338,13 +2341,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2352,13 +2355,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2366,13 +2369,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2380,27 +2383,27 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2408,13 +2411,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2422,13 +2425,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2436,27 +2439,27 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2464,13 +2467,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2478,27 +2481,27 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2506,13 +2509,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2520,27 +2523,27 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2548,41 +2551,41 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2590,27 +2593,27 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -2618,41 +2621,41 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B150" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2660,27 +2663,27 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -2688,15 +2691,57 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>38</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157">
         <v>0</v>
       </c>
     </row>
